--- a/documents/DB定義書_B1.xlsx
+++ b/documents/DB定義書_B1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\チーム設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B5F13F-8773-4156-9422-BE7044E9E304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0A0767-832E-4AD5-869D-5B8AC4EE5C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="112">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -466,19 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自己紹介時の公開範囲</t>
-    <rPh sb="0" eb="4">
-      <t>ジコショウカイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>コウカイハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルファベットと数字どちらも含む、８文字以上１６文字未満</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,13 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スレッドの内容</t>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>char</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -603,16 +583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受講者か講師か</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問い合わせid</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
@@ -653,12 +623,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0悩み、1質問など</t>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｔｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日時を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0受講者1講師2事務局3その他</t>
+    <rPh sb="1" eb="4">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介時の公開範囲0公開1非公開</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コウカイハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの内容　0受講者のみ1全員</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0悩み、1質問として00パーソナル（悩み）、01it基礎、02java基礎03開発04その他10パーソナル（質問）11it基礎．．．など</t>
     <rPh sb="1" eb="2">
       <t>ナヤ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>シツモン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1150,7 +1208,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1290,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
@@ -1305,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>39</v>
@@ -1548,7 +1606,613 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F263A89-392E-4976-BB80-3939BD324F7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (50),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_pw varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_k_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>user_company varchar (50),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>user_class int ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>user_prefecture varchar (50),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>user_hobby varchar (50),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>user_skill varchar (50),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>user_birth date ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>user_remarks varchar (100),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>user_range int ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3">
+        <v>50</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>user_image varchar (50)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D200F7-747B-46B2-8BD7-E63877C19993}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1659,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -1670,19 +2334,17 @@
       <c r="E10" s="3">
         <v>50</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_id varchar (50),</v>
       </c>
     </row>
@@ -1690,28 +2352,30 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
+        <f t="shared" si="0"/>
+        <v>bbs_id int auto_increment ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1719,16 +2383,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1736,12 +2400,10 @@
         <v>37</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <f t="shared" si="0"/>
+        <v>bbs_title varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1749,16 +2411,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1768,8 +2430,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_k_name varchar (20),</v>
+        <f t="shared" si="0"/>
+        <v>bbs_details varchar (1000),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1777,16 +2439,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1794,10 +2456,12 @@
         <v>37</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_company varchar (50),</v>
+        <f t="shared" si="0"/>
+        <v>bbs_pw char (4),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1805,13 +2469,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1823,11 +2487,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_class int ,</v>
+        <f t="shared" si="0"/>
+        <v>bbs_range int  ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1835,616 +2499,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3">
-        <v>50</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>user_prefecture varchar (50),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>user_hobby varchar (50),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>user_skill varchar (50),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>user_birth date ,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>user_remarks varchar (100),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>user_range int ,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="3">
-        <v>50</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>user_image varchar (50)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D200F7-747B-46B2-8BD7-E63877C19993}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (50),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>bbs_id int auto_increment ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>bbs_title varchar (50),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>bbs_details varchar (1000),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>bbs_pw char (4),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>bbs_range int  ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -2459,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L16" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2498,7 +2556,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L15:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2516,7 +2574,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2534,7 +2592,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2552,7 +2610,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2570,7 +2628,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2588,7 +2646,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2606,7 +2664,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2624,7 +2682,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2642,7 +2700,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2660,7 +2718,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2678,7 +2736,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2696,7 +2754,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2930,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3251,7 +3309,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3389,10 +3447,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3472,18 +3530,28 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">ｔｓ timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3764,6 +3832,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3771,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E59BB-BC89-4803-9011-0708D17F886F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3947,7 +4016,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -3973,7 +4042,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -3996,13 +4065,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
@@ -4012,7 +4081,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4027,7 +4096,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>64</v>
@@ -4040,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4052,10 +4121,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -4087,7 +4156,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4336,7 +4405,7 @@
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
@@ -4433,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
@@ -4451,22 +4520,22 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>bbs_category int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
@@ -4481,7 +4550,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>

--- a/documents/DB定義書_B1.xlsx
+++ b/documents/DB定義書_B1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\チーム設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0A0767-832E-4AD5-869D-5B8AC4EE5C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56064E0-3085-41A8-A806-994FD9398D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="111">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -404,10 +404,6 @@
   </si>
   <si>
     <t>inquiry_details</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1231,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1245,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1348,10 +1344,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>39</v>
@@ -1363,10 +1359,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>39</v>
@@ -1606,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F263A89-392E-4976-BB80-3939BD324F7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1795,7 +1791,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1881,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -1896,7 +1892,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>36</v>
@@ -1922,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>36</v>
@@ -1948,7 +1944,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>36</v>
@@ -1974,12 +1970,14 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1987,7 +1985,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>user_birth date ,</v>
+        <v>user_birth varchar (20),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -1998,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>36</v>
@@ -2024,7 +2022,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>35</v>
@@ -2037,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -2049,10 +2047,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>36</v>
@@ -2341,7 +2339,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2386,7 +2384,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -2414,7 +2412,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -2439,13 +2437,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
@@ -2457,7 +2455,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2472,10 +2470,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2487,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -2499,10 +2497,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -2517,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2973,10 +2971,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2988,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L13" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3000,10 +2998,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
@@ -3308,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D959AC5-C4A3-4612-927B-EB159CEB44B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3447,10 +3445,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3531,13 +3529,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3547,7 +3545,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3840,7 +3838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E59BB-BC89-4803-9011-0708D17F886F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -4016,7 +4014,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -4042,7 +4040,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -4065,13 +4063,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
@@ -4081,7 +4079,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4096,10 +4094,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4109,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4121,10 +4119,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -4502,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
@@ -4520,7 +4518,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4532,10 +4530,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
@@ -4550,7 +4548,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>

--- a/documents/DB定義書_B1.xlsx
+++ b/documents/DB定義書_B1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56064E0-3085-41A8-A806-994FD9398D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF59153-9FD7-4FE9-8E99-DD6FB1443194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="113">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -715,6 +715,13 @@
       <t>キソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int auto_increment</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F263A89-392E-4976-BB80-3939BD324F7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2771,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE86333-5C48-4B1A-946B-58D9D562BED6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2888,12 +2895,10 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2904,7 +2909,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>bbs_id int auto_increment ,</v>
+        <v>bbs_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3026,17 +3031,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">reply_id int auto_increment </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3299,6 +3312,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
